--- a/example/Sample_Bar_v2023_2.xlsx
+++ b/example/Sample_Bar_v2023_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24D32C4-ACC9-441F-A473-289BE46323C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99216F3E-2384-4225-95FD-F24EFD14BBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34290" yWindow="-7290" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
